--- a/biology/Botanique/Psychopsis/Psychopsis.xlsx
+++ b/biology/Botanique/Psychopsis/Psychopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychopsis est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -511,33 +523,35 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 octobre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 octobre 2021) :
 Psychopsis krameriana (Rchb.f.) H.G.Jones
 Psychopsis limminghei (E.Morren ex Lindl.) M.W.Chase
 Psychopsis papilio (Lindl.) H.G. Jones
 Psychopsis sanderae (Rolfe) Lückel &amp; Braem
 Psychopsis versteegiana (Pulle) Lückel &amp; Braem
-Selon ITIS      (12 octobre 2021)[2] :
+Selon ITIS      (12 octobre 2021) :
 Psychopsis papilio (Lindl.) H.G. Jones
-Selon World Checklist of Selected Plant Families (WCSP)  (12 octobre 2021)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (12 octobre 2021) :
 Psychopsis krameriana (Rchb.f.) H.G.Jones (1975)
 Psychopsis papilio (Lindl.) H.G.Jones (1975)
 Psychopsis sanderae (Rolfe) Lückel &amp; Braem (1982)
 Psychopsis versteegiana (Pulle) Lückel &amp; Braem (1982)
-Selon NCBI  (12 octobre 2021)[4] :
+Selon NCBI  (12 octobre 2021) :
 Psychopsis barnardi Tillyard, 1925
 Psychopsis coelivaga (Walker, 1853)
 Psychopsis insolens McLachlan, 1863
 Psychopsis margarita Tillyard, 1922
-Selon The Plant List            (12 octobre 2021)[5] :
+Selon The Plant List            (12 octobre 2021) :
 Psychopsis krameriana (Rchb.f.) H.G.Jones
 Psychopsis limminghei (E.Morren ex Lindl.) M.W.Chase
 Psychopsis papilio (Lindl.) H.G.Jones
 Psychopsis sanderae (Rolfe) Lückel &amp; Braem
 Psychopsis versteegiana (Pulle) Lückel &amp; Braem
-Selon Tropicos                                           (12 octobre 2021)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Psychopsis krameriana (Rchb. f.) H.G. Jones
 Psychopsis latourae (Broadway) H.G. Jones
 Psychopsis limminghei (Morren ex Lindl.) M.W. Chase
